--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.3948294795377</v>
+        <v>188.3000000838318</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06100010871887207</v>
+        <v>0.0540001392364502</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.72482947953772</v>
+        <v>34.30000008383182</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.31430901573739</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.58460255878718</v>
+        <v>10.68883997447805</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.98279108423719</v>
+        <v>12.29065144902797</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.71988374630615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.04208713267367</v>
+        <v>22.48909622152296</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4419999999991</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4220000000169</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22299999999996</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>197.9420000000209</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.32400000000052</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>99.32400000000052</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>128.4419999999972</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>197.9420000000209</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
